--- a/src/main/resources/data1/Book2.xlsx
+++ b/src/main/resources/data1/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\FileComparision\src\main\resources\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\filecomparision\src\main\resources\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A8FF8-FDD0-4FAF-91EC-D2441D537B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5800FC2-CF7D-4CE6-8F5C-4AC34B9052ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C02EB7D8-751D-4BD9-A0E1-FB2ACE060F66}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{C02EB7D8-751D-4BD9-A0E1-FB2ACE060F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>TradeId</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>ws</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -55,6 +43,18 @@
   </si>
   <si>
     <t>hjhj</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Trade ID</t>
   </si>
 </sst>
 </file>
@@ -408,27 +408,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291B4014-175C-4D13-A571-09EF90B7C9E9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -436,7 +434,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -496,7 +494,7 @@
         <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data1/Book2.xlsx
+++ b/src/main/resources/data1/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\FileComparision\src\main\resources\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\filecomparision\src\main\resources\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A8FF8-FDD0-4FAF-91EC-D2441D537B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9758D892-D87A-44A0-B3C5-9D23C5018BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C02EB7D8-751D-4BD9-A0E1-FB2ACE060F66}"/>
   </bookViews>
@@ -39,15 +39,6 @@
     <t>TradeId</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>ws</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -55,6 +46,15 @@
   </si>
   <si>
     <t>hjhj</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Mask</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,16 +419,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -436,7 +436,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -496,7 +496,7 @@
         <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
